--- a/Relatorios_validacao/tabela_bancaria_coleta.xlsx
+++ b/Relatorios_validacao/tabela_bancaria_coleta.xlsx
@@ -483,13 +483,13 @@
         <v>55</v>
       </c>
       <c r="D2">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E2">
         <v>38</v>
       </c>
       <c r="F2">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="G2">
         <v>34</v>
@@ -506,19 +506,19 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D3">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="E3">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F3">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="G3">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H3">
         <v>20</v>
@@ -532,19 +532,19 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="D4">
         <v>49</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="F4">
         <v>25</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -561,7 +561,7 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>28</v>
@@ -573,7 +573,7 @@
         <v>20</v>
       </c>
       <c r="H5">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -584,7 +584,7 @@
         <v>21</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -610,13 +610,13 @@
         <v>22</v>
       </c>
       <c r="C7">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E7">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="F7">
         <v>8</v>
@@ -625,7 +625,7 @@
         <v>60</v>
       </c>
       <c r="H7">
-        <v>26</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -639,7 +639,7 @@
         <v>34</v>
       </c>
       <c r="D8">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="E8">
         <v>21</v>
@@ -665,10 +665,10 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E9">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="F9">
         <v>51</v>
@@ -688,19 +688,19 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>36</v>
       </c>
       <c r="E10">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="F10">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="G10">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="H10">
         <v>26</v>
@@ -726,10 +726,10 @@
         <v>29</v>
       </c>
       <c r="G11">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="H11">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -740,22 +740,22 @@
         <v>21</v>
       </c>
       <c r="C12">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E12">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F12">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G12">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="H12">
-        <v>80</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -766,7 +766,7 @@
         <v>22</v>
       </c>
       <c r="C13">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D13">
         <v>9</v>
@@ -792,10 +792,10 @@
         <v>20</v>
       </c>
       <c r="C14">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D14">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E14">
         <v>31</v>
@@ -818,13 +818,13 @@
         <v>21</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="D15">
         <v>4</v>
       </c>
       <c r="E15">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F15">
         <v>30</v>
@@ -853,10 +853,10 @@
         <v>2</v>
       </c>
       <c r="F16">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="G16">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="H16">
         <v>18</v>
@@ -870,7 +870,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D17">
         <v>60</v>
@@ -882,10 +882,10 @@
         <v>58</v>
       </c>
       <c r="G17">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="H17">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -896,13 +896,13 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D18">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E18">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F18">
         <v>63</v>
@@ -922,22 +922,22 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="D19">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E19">
         <v>29</v>
       </c>
       <c r="F19">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G19">
         <v>36</v>
       </c>
       <c r="H19">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -951,10 +951,10 @@
         <v>7</v>
       </c>
       <c r="D20">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="E20">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F20">
         <v>37</v>
@@ -983,13 +983,13 @@
         <v>17</v>
       </c>
       <c r="F21">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G21">
         <v>81</v>
       </c>
       <c r="H21">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1003,19 +1003,19 @@
         <v>51</v>
       </c>
       <c r="D22">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F22">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G22">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="H22">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1029,7 +1029,7 @@
         <v>41</v>
       </c>
       <c r="D23">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="E23">
         <v>25</v>
@@ -1038,7 +1038,7 @@
         <v>54</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H23">
         <v>10</v>
@@ -1052,13 +1052,13 @@
         <v>21</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D24">
         <v>87</v>
       </c>
       <c r="E24">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F24">
         <v>8</v>
@@ -1067,7 +1067,7 @@
         <v>33</v>
       </c>
       <c r="H24">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1087,7 +1087,7 @@
         <v>2</v>
       </c>
       <c r="F25">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G25">
         <v>9</v>
@@ -1107,10 +1107,10 @@
         <v>2</v>
       </c>
       <c r="D26">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E26">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F26">
         <v>58</v>
@@ -1119,7 +1119,7 @@
         <v>29</v>
       </c>
       <c r="H26">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1130,7 +1130,7 @@
         <v>21</v>
       </c>
       <c r="C27">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D27">
         <v>63</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="H27">
         <v>55</v>
@@ -1156,10 +1156,10 @@
         <v>22</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D28">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E28">
         <v>29</v>
@@ -1194,7 +1194,7 @@
         <v>68</v>
       </c>
       <c r="G29">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H29">
         <v>5</v>
@@ -1208,13 +1208,13 @@
         <v>21</v>
       </c>
       <c r="C30">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F30">
         <v>29</v>
@@ -1223,7 +1223,7 @@
         <v>6</v>
       </c>
       <c r="H30">
-        <v>37</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1237,19 +1237,19 @@
         <v>27</v>
       </c>
       <c r="D31">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E31">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G31">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="H31">
-        <v>57</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1263,7 +1263,7 @@
         <v>40</v>
       </c>
       <c r="D32">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="E32">
         <v>30</v>
@@ -1286,19 +1286,19 @@
         <v>21</v>
       </c>
       <c r="C33">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D33">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="E33">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="F33">
         <v>34</v>
       </c>
       <c r="G33">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>22</v>
       </c>
       <c r="C34">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D34">
         <v>79</v>
@@ -1327,7 +1327,7 @@
         <v>23</v>
       </c>
       <c r="H34">
-        <v>49</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1347,13 +1347,13 @@
         <v>18</v>
       </c>
       <c r="F35">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H35">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1364,13 +1364,13 @@
         <v>21</v>
       </c>
       <c r="C36">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D36">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E36">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="F36">
         <v>25</v>
@@ -1390,22 +1390,22 @@
         <v>22</v>
       </c>
       <c r="C37">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F37">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="G37">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H37">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
